--- a/fuentes/contenidos/grado05/guion12/SolicitudGrafica_CN_05_12_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado05/guion12/SolicitudGrafica_CN_05_12_CO_REC90.xlsx
@@ -510,9 +510,6 @@
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
   </si>
   <si>
-    <t>Cuaderno de Estudio</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
@@ -586,6 +583,9 @@
   </si>
   <si>
     <t>Ver observaciones</t>
+  </si>
+  <si>
+    <t>Diaporama</t>
   </si>
 </sst>
 </file>
@@ -1570,6 +1570,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1667,12 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2522,7 +2522,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2560,14 +2560,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="96"/>
+      <c r="F2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="87"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="J2" s="16"/>
@@ -2577,14 +2577,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="97">
         <v>5</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="F3" s="88">
+      <c r="D3" s="98"/>
+      <c r="F3" s="90">
         <v>42130</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
       <c r="J3" s="16"/>
@@ -2594,10 +2594,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="98"/>
+      <c r="C4" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="100"/>
       <c r="E4" s="5"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
@@ -2615,17 +2615,17 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="100"/>
+      <c r="C5" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="102"/>
       <c r="E5" s="5"/>
       <c r="F5" s="40" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="64"/>
@@ -2651,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>39</v>
@@ -2669,12 +2669,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2720,19 +2720,19 @@
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="83">
         <v>127965605</v>
       </c>
       <c r="C10" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="E10" s="68" t="s">
         <v>146</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>147</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2787,24 +2787,24 @@
       </c>
       <c r="J11" s="70"/>
       <c r="K11" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2824,24 +2824,24 @@
       </c>
       <c r="J12" s="85"/>
       <c r="K12" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D13" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2860,25 +2860,25 @@
         <v/>
       </c>
       <c r="J13" s="70"/>
-      <c r="K13" s="120" t="s">
-        <v>164</v>
+      <c r="K13" s="87" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2898,24 +2898,24 @@
       </c>
       <c r="J14" s="80"/>
       <c r="K14" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2934,25 +2934,25 @@
         <v/>
       </c>
       <c r="J15" s="70"/>
-      <c r="K15" s="120" t="s">
-        <v>166</v>
+      <c r="K15" s="87" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2972,24 +2972,24 @@
       </c>
       <c r="J16" s="70"/>
       <c r="K16" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3009,24 +3009,24 @@
       </c>
       <c r="J17" s="70"/>
       <c r="K17" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>145</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="J18" s="81"/>
       <c r="K18" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5299,25 +5299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="34"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5325,11 +5325,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="35"/>
       <c r="H3" s="25" t="s">
         <v>18</v>
@@ -5380,11 +5380,11 @@
       <c r="C5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="117" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="35"/>
       <c r="H5" s="25" t="s">
         <v>22</v>
@@ -5429,12 +5429,12 @@
       <c r="C7" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="101" t="str">
+      <c r="D7" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="H7" s="25" t="s">
         <v>24</v>
       </c>
@@ -5528,14 +5528,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="I13" s="25" t="s">
         <v>33</v>
       </c>
@@ -5568,12 +5568,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="J15" s="25">
         <v>12</v>
       </c>
@@ -5613,12 +5613,12 @@
       <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="109" t="str">
+      <c r="D17" s="111" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="J17" s="25">
         <v>14</v>
       </c>
@@ -5634,12 +5634,12 @@
       <c r="C18" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="101" t="str">
+      <c r="D18" s="103" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
       <c r="J18" s="25">
         <v>15</v>
       </c>
@@ -6036,41 +6036,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="44" t="s">
         <v>65</v>
       </c>
